--- a/Wilczewski_Mariusz_3_selfassessment_012024.xlsx
+++ b/Wilczewski_Mariusz_3_selfassessment_012024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\OneDrive\Desktop\Openclassroom projects\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84010184-AE22-4667-A12A-644525ADEBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6856E0-AE15-4F16-B339-84D012D3CD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="PlageNommée1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'🗺 Skill mapping'!$A$1:$E$10</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -587,11 +588,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E944"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5523,6 +5527,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="9" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>